--- a/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 8,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 12,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 10,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 15,57</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 11,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 9,39</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 5,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 12,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 17,21</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 11,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 9,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 14,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 12,01</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,64%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 12,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,3; 18,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 16,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 25,29</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 9,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 11,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 12,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 14,31</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; 0,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 11,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 0,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 14,91</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 6,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 10,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 8,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 28,09</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 8,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 4,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 12,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 10,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,39</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 17,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 11,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 14,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 12,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 12,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 18,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 16,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 25,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 14,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 14,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 28,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Provincia-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
